--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_16ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_16ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -1802,28 +1802,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>183.8562141029339</v>
+        <v>244.2897886713175</v>
       </c>
       <c r="AB2" t="n">
-        <v>251.5601832992282</v>
+        <v>334.2480661647924</v>
       </c>
       <c r="AC2" t="n">
-        <v>227.5516324721578</v>
+        <v>302.3478998502313</v>
       </c>
       <c r="AD2" t="n">
-        <v>183856.2141029339</v>
+        <v>244289.7886713175</v>
       </c>
       <c r="AE2" t="n">
-        <v>251560.1832992282</v>
+        <v>334248.0661647924</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.247740575986305e-06</v>
+        <v>3.240487600794923e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.515625</v>
       </c>
       <c r="AH2" t="n">
-        <v>227551.6324721578</v>
+        <v>302347.8998502312</v>
       </c>
     </row>
     <row r="3">
@@ -1908,28 +1908,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>146.1489580676485</v>
+        <v>189.3158865536164</v>
       </c>
       <c r="AB3" t="n">
-        <v>199.9674520650461</v>
+        <v>259.0303480099975</v>
       </c>
       <c r="AC3" t="n">
-        <v>180.8828390960965</v>
+        <v>234.3088551473755</v>
       </c>
       <c r="AD3" t="n">
-        <v>146148.9580676485</v>
+        <v>189315.8865536164</v>
       </c>
       <c r="AE3" t="n">
-        <v>199967.4520650461</v>
+        <v>259030.3480099975</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.754064576217825e-06</v>
+        <v>3.970436893993572e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.04166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>180882.8390960965</v>
+        <v>234308.8551473756</v>
       </c>
     </row>
     <row r="4">
@@ -2014,28 +2014,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>132.1601623924559</v>
+        <v>175.4123422244444</v>
       </c>
       <c r="AB4" t="n">
-        <v>180.8273646801477</v>
+        <v>240.0069052777484</v>
       </c>
       <c r="AC4" t="n">
-        <v>163.5694547879254</v>
+        <v>217.1009830899167</v>
       </c>
       <c r="AD4" t="n">
-        <v>132160.1623924559</v>
+        <v>175412.3422244444</v>
       </c>
       <c r="AE4" t="n">
-        <v>180827.3646801477</v>
+        <v>240006.9052777484</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.887414613711956e-06</v>
+        <v>4.162682897683591e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.52083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>163569.4547879254</v>
+        <v>217100.9830899167</v>
       </c>
     </row>
   </sheetData>
@@ -2311,28 +2311,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>157.7819947022663</v>
+        <v>208.2012846862632</v>
       </c>
       <c r="AB2" t="n">
-        <v>215.8842860018778</v>
+        <v>284.8701829000356</v>
       </c>
       <c r="AC2" t="n">
-        <v>195.2805927414188</v>
+        <v>257.6825724619528</v>
       </c>
       <c r="AD2" t="n">
-        <v>157781.9947022663</v>
+        <v>208201.2846862632</v>
       </c>
       <c r="AE2" t="n">
-        <v>215884.2860018778</v>
+        <v>284870.1829000356</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.578745755858434e-06</v>
+        <v>3.77518677686171e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.1875</v>
       </c>
       <c r="AH2" t="n">
-        <v>195280.5927414188</v>
+        <v>257682.5724619528</v>
       </c>
     </row>
     <row r="3">
@@ -2417,28 +2417,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>125.9520846783161</v>
+        <v>167.9539511073101</v>
       </c>
       <c r="AB3" t="n">
-        <v>172.3331988706067</v>
+        <v>229.8020055102967</v>
       </c>
       <c r="AC3" t="n">
-        <v>155.8859602416077</v>
+        <v>207.8700246336007</v>
       </c>
       <c r="AD3" t="n">
-        <v>125952.0846783161</v>
+        <v>167953.9511073101</v>
       </c>
       <c r="AE3" t="n">
-        <v>172333.1988706067</v>
+        <v>229802.0055102967</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.046969836833853e-06</v>
+        <v>4.460649217310091e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.3125</v>
       </c>
       <c r="AH3" t="n">
-        <v>155885.9602416077</v>
+        <v>207870.0246336006</v>
       </c>
     </row>
     <row r="4">
@@ -2523,28 +2523,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>126.1228532709134</v>
+        <v>168.1247196999074</v>
       </c>
       <c r="AB4" t="n">
-        <v>172.5668519927768</v>
+        <v>230.0356586324668</v>
       </c>
       <c r="AC4" t="n">
-        <v>156.0973138377322</v>
+        <v>208.0813782297251</v>
       </c>
       <c r="AD4" t="n">
-        <v>126122.8532709134</v>
+        <v>168124.7196999073</v>
       </c>
       <c r="AE4" t="n">
-        <v>172566.8519927768</v>
+        <v>230035.6586324668</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.044192993488375e-06</v>
+        <v>4.45658402311425e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.32552083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>156097.3138377322</v>
+        <v>208081.3782297251</v>
       </c>
     </row>
   </sheetData>
@@ -2820,28 +2820,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>111.9532484166578</v>
+        <v>158.4716399675247</v>
       </c>
       <c r="AB2" t="n">
-        <v>153.1793735123466</v>
+        <v>216.8278890788056</v>
       </c>
       <c r="AC2" t="n">
-        <v>138.560149092971</v>
+        <v>196.1341396650401</v>
       </c>
       <c r="AD2" t="n">
-        <v>111953.2484166578</v>
+        <v>158471.6399675247</v>
       </c>
       <c r="AE2" t="n">
-        <v>153179.3735123466</v>
+        <v>216827.8890788056</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.315828550101794e-06</v>
+        <v>5.129996049391307e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.5859375</v>
       </c>
       <c r="AH2" t="n">
-        <v>138560.1490929711</v>
+        <v>196134.1396650401</v>
       </c>
     </row>
   </sheetData>
@@ -3117,28 +3117,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>117.1660538560987</v>
+        <v>157.1881300688005</v>
       </c>
       <c r="AB2" t="n">
-        <v>160.3117638873314</v>
+        <v>215.0717342109117</v>
       </c>
       <c r="AC2" t="n">
-        <v>145.0118341409424</v>
+        <v>194.5455897529587</v>
       </c>
       <c r="AD2" t="n">
-        <v>117166.0538560987</v>
+        <v>157188.1300688005</v>
       </c>
       <c r="AE2" t="n">
-        <v>160311.7638873314</v>
+        <v>215071.7342109117</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.227773444628477e-06</v>
+        <v>4.878114538355977e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.40364583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>145011.8341409424</v>
+        <v>194545.5897529587</v>
       </c>
     </row>
     <row r="3">
@@ -3223,28 +3223,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>117.0815899590898</v>
+        <v>157.1036661717916</v>
       </c>
       <c r="AB3" t="n">
-        <v>160.1961966571597</v>
+        <v>214.95616698074</v>
       </c>
       <c r="AC3" t="n">
-        <v>144.9072964850186</v>
+        <v>194.4410520970349</v>
       </c>
       <c r="AD3" t="n">
-        <v>117081.5899590898</v>
+        <v>157103.6661717916</v>
       </c>
       <c r="AE3" t="n">
-        <v>160196.1966571597</v>
+        <v>214956.16698074</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.242775314465836e-06</v>
+        <v>4.900786773756492e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.3515625</v>
       </c>
       <c r="AH3" t="n">
-        <v>144907.2964850186</v>
+        <v>194441.0520970349</v>
       </c>
     </row>
   </sheetData>
@@ -3520,28 +3520,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>116.0295587914285</v>
+        <v>153.8237064856849</v>
       </c>
       <c r="AB2" t="n">
-        <v>158.7567612012268</v>
+        <v>210.4683814366022</v>
       </c>
       <c r="AC2" t="n">
-        <v>143.6052387287391</v>
+        <v>190.3815745065816</v>
       </c>
       <c r="AD2" t="n">
-        <v>116029.5587914285</v>
+        <v>153823.7064856848</v>
       </c>
       <c r="AE2" t="n">
-        <v>158756.7612012268</v>
+        <v>210468.3814366022</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.313503550487219e-06</v>
+        <v>5.236952567502388e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.00260416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>143605.2387287391</v>
+        <v>190381.5745065816</v>
       </c>
     </row>
   </sheetData>
@@ -3817,28 +3817,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>161.6631004040171</v>
+        <v>212.4229449726379</v>
       </c>
       <c r="AB2" t="n">
-        <v>221.1945860453099</v>
+        <v>290.6464447503577</v>
       </c>
       <c r="AC2" t="n">
-        <v>200.0840852017604</v>
+        <v>262.9075559883164</v>
       </c>
       <c r="AD2" t="n">
-        <v>161663.1004040171</v>
+        <v>212422.9449726378</v>
       </c>
       <c r="AE2" t="n">
-        <v>221194.5860453099</v>
+        <v>290646.4447503577</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.497432242008852e-06</v>
+        <v>3.640972223102674e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.47395833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>200084.0852017604</v>
+        <v>262907.5559883164</v>
       </c>
     </row>
     <row r="3">
@@ -3923,28 +3923,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>128.0188316980669</v>
+        <v>170.3044936142474</v>
       </c>
       <c r="AB3" t="n">
-        <v>175.1610133214719</v>
+        <v>233.0181214669035</v>
       </c>
       <c r="AC3" t="n">
-        <v>158.4438920501457</v>
+        <v>210.779198997157</v>
       </c>
       <c r="AD3" t="n">
-        <v>128018.8316980669</v>
+        <v>170304.4936142474</v>
       </c>
       <c r="AE3" t="n">
-        <v>175161.0133214719</v>
+        <v>233018.1214669035</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.990476853418223e-06</v>
+        <v>4.359775201896606e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.41666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>158443.8920501457</v>
+        <v>210779.198997157</v>
       </c>
     </row>
     <row r="4">
@@ -4029,28 +4029,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>127.596722088945</v>
+        <v>169.8823840051255</v>
       </c>
       <c r="AB4" t="n">
-        <v>174.5834643321099</v>
+        <v>232.4405724775415</v>
       </c>
       <c r="AC4" t="n">
-        <v>157.9214635257331</v>
+        <v>210.2567704727444</v>
       </c>
       <c r="AD4" t="n">
-        <v>127596.722088945</v>
+        <v>169882.3840051255</v>
       </c>
       <c r="AE4" t="n">
-        <v>174583.4643321099</v>
+        <v>232440.5724775415</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.004643151707601e-06</v>
+        <v>4.380428053937279e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.36458333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>157921.4635257331</v>
+        <v>210256.7704727445</v>
       </c>
     </row>
   </sheetData>
@@ -4326,28 +4326,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>113.9349359496503</v>
+        <v>158.3765156353203</v>
       </c>
       <c r="AB2" t="n">
-        <v>155.8908058208693</v>
+        <v>216.6977357708943</v>
       </c>
       <c r="AC2" t="n">
-        <v>141.0128061074884</v>
+        <v>196.0164080061645</v>
       </c>
       <c r="AD2" t="n">
-        <v>113934.9359496503</v>
+        <v>158376.5156353203</v>
       </c>
       <c r="AE2" t="n">
-        <v>155890.8058208693</v>
+        <v>216697.7357708943</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.266461877770636e-06</v>
+        <v>5.233639212498831e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.41927083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>141012.8061074884</v>
+        <v>196016.4080061645</v>
       </c>
     </row>
   </sheetData>
@@ -4623,28 +4623,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>136.7406115326861</v>
+        <v>177.9067651511011</v>
       </c>
       <c r="AB2" t="n">
-        <v>187.0945372689619</v>
+        <v>243.4198847721712</v>
       </c>
       <c r="AC2" t="n">
-        <v>169.2384972208972</v>
+        <v>220.1882326115397</v>
       </c>
       <c r="AD2" t="n">
-        <v>136740.6115326861</v>
+        <v>177906.7651511011</v>
       </c>
       <c r="AE2" t="n">
-        <v>187094.5372689619</v>
+        <v>243419.8847721712</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.891435322510651e-06</v>
+        <v>4.293328068569801e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.19791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>169238.4972208971</v>
+        <v>220188.2326115397</v>
       </c>
     </row>
     <row r="3">
@@ -4729,28 +4729,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>121.5852424265974</v>
+        <v>162.6660551904407</v>
       </c>
       <c r="AB3" t="n">
-        <v>166.3582926503247</v>
+        <v>222.5668730313364</v>
       </c>
       <c r="AC3" t="n">
-        <v>150.4812906851539</v>
+        <v>201.3254030438578</v>
       </c>
       <c r="AD3" t="n">
-        <v>121585.2424265974</v>
+        <v>162666.0551904407</v>
       </c>
       <c r="AE3" t="n">
-        <v>166358.2926503247</v>
+        <v>222566.8730313364</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.150045667945704e-06</v>
+        <v>4.677323880696344e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.28645833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>150481.2906851539</v>
+        <v>201325.4030438578</v>
       </c>
     </row>
   </sheetData>
@@ -5026,28 +5026,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>144.7501945789895</v>
+        <v>194.9012313088691</v>
       </c>
       <c r="AB2" t="n">
-        <v>198.053602150774</v>
+        <v>266.6724631121503</v>
       </c>
       <c r="AC2" t="n">
-        <v>179.1516443315367</v>
+        <v>241.2216175099573</v>
       </c>
       <c r="AD2" t="n">
-        <v>144750.1945789895</v>
+        <v>194901.2313088691</v>
       </c>
       <c r="AE2" t="n">
-        <v>198053.602150774</v>
+        <v>266672.4631121503</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.68358242460981e-06</v>
+        <v>3.946053593425291e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.82291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>179151.6443315367</v>
+        <v>241221.6175099573</v>
       </c>
     </row>
     <row r="3">
@@ -5132,28 +5132,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>124.3223161593974</v>
+        <v>166.0295954216097</v>
       </c>
       <c r="AB3" t="n">
-        <v>170.1032776827107</v>
+        <v>227.1690171645417</v>
       </c>
       <c r="AC3" t="n">
-        <v>153.8688596021697</v>
+        <v>205.4883250001413</v>
       </c>
       <c r="AD3" t="n">
-        <v>124322.3161593974</v>
+        <v>166029.5954216097</v>
       </c>
       <c r="AE3" t="n">
-        <v>170103.2776827107</v>
+        <v>227169.0171645417</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.081639513170997e-06</v>
+        <v>4.531373645569272e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.29947916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>153868.8596021697</v>
+        <v>205488.3250001413</v>
       </c>
     </row>
   </sheetData>
@@ -5429,28 +5429,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>179.6770715491229</v>
+        <v>239.5804458068342</v>
       </c>
       <c r="AB2" t="n">
-        <v>245.8420960863497</v>
+        <v>327.8045354960654</v>
       </c>
       <c r="AC2" t="n">
-        <v>222.3792714774888</v>
+        <v>296.5193307049734</v>
       </c>
       <c r="AD2" t="n">
-        <v>179677.0715491229</v>
+        <v>239580.4458068342</v>
       </c>
       <c r="AE2" t="n">
-        <v>245842.0960863497</v>
+        <v>327804.5354960654</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.318176760580541e-06</v>
+        <v>3.353874402798686e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.21614583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>222379.2714774888</v>
+        <v>296519.3307049734</v>
       </c>
     </row>
     <row r="3">
@@ -5535,28 +5535,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>133.9316043302906</v>
+        <v>185.3382347256934</v>
       </c>
       <c r="AB3" t="n">
-        <v>183.2511296899947</v>
+        <v>253.5879492974221</v>
       </c>
       <c r="AC3" t="n">
-        <v>165.7618990670089</v>
+        <v>229.3858713294722</v>
       </c>
       <c r="AD3" t="n">
-        <v>133931.6043302906</v>
+        <v>185338.2347256934</v>
       </c>
       <c r="AE3" t="n">
-        <v>183251.1296899947</v>
+        <v>253587.9492974221</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.844241576570111e-06</v>
+        <v>4.11497051529641e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.76822916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>165761.8990670089</v>
+        <v>229385.8713294722</v>
       </c>
     </row>
     <row r="4">
@@ -5641,28 +5641,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>130.3952409569785</v>
+        <v>173.2199656526032</v>
       </c>
       <c r="AB4" t="n">
-        <v>178.4125213092903</v>
+        <v>237.0071989313286</v>
       </c>
       <c r="AC4" t="n">
-        <v>161.3850806791279</v>
+        <v>214.387564507084</v>
       </c>
       <c r="AD4" t="n">
-        <v>130395.2409569785</v>
+        <v>173219.9656526032</v>
       </c>
       <c r="AE4" t="n">
-        <v>178412.5213092903</v>
+        <v>237007.1989313286</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.938965712227967e-06</v>
+        <v>4.252014790483845e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.4296875</v>
       </c>
       <c r="AH4" t="n">
-        <v>161385.0806791279</v>
+        <v>214387.564507084</v>
       </c>
     </row>
   </sheetData>
@@ -5938,28 +5938,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>120.3782158370385</v>
+        <v>168.8677303816598</v>
       </c>
       <c r="AB2" t="n">
-        <v>164.7067856202362</v>
+        <v>231.0522786265579</v>
       </c>
       <c r="AC2" t="n">
-        <v>148.9874011681119</v>
+        <v>209.0009734384156</v>
       </c>
       <c r="AD2" t="n">
-        <v>120378.2158370385</v>
+        <v>168867.7303816598</v>
       </c>
       <c r="AE2" t="n">
-        <v>164706.7856202362</v>
+        <v>231052.2786265579</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.136112595442795e-06</v>
+        <v>4.709452032457226e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.57291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>148987.4011681119</v>
+        <v>209000.9734384156</v>
       </c>
     </row>
     <row r="3">
@@ -6044,28 +6044,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>118.5620208311024</v>
+        <v>158.9558156510759</v>
       </c>
       <c r="AB3" t="n">
-        <v>162.2217874882469</v>
+        <v>217.4903596093637</v>
       </c>
       <c r="AC3" t="n">
-        <v>146.7395677701221</v>
+        <v>196.7333849379453</v>
       </c>
       <c r="AD3" t="n">
-        <v>118562.0208311024</v>
+        <v>158955.8156510759</v>
       </c>
       <c r="AE3" t="n">
-        <v>162221.7874882469</v>
+        <v>217490.3596093637</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.217030246414426e-06</v>
+        <v>4.830964823925162e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.29947916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>146739.5677701221</v>
+        <v>196733.3849379453</v>
       </c>
     </row>
   </sheetData>
@@ -6341,28 +6341,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>113.427600678303</v>
+        <v>152.6333092926841</v>
       </c>
       <c r="AB2" t="n">
-        <v>155.1966473205597</v>
+        <v>208.8396274805216</v>
       </c>
       <c r="AC2" t="n">
-        <v>140.3848971201905</v>
+        <v>188.9082665420983</v>
       </c>
       <c r="AD2" t="n">
-        <v>113427.600678303</v>
+        <v>152633.309292684</v>
       </c>
       <c r="AE2" t="n">
-        <v>155196.6473205597</v>
+        <v>208839.6274805216</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.305235664697037e-06</v>
+        <v>5.069394455017014e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.44270833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>140384.8971201906</v>
+        <v>188908.2665420983</v>
       </c>
     </row>
   </sheetData>
@@ -10419,28 +10419,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>110.1200567152417</v>
+        <v>156.0442764012179</v>
       </c>
       <c r="AB2" t="n">
-        <v>150.6711197517604</v>
+        <v>213.5066631596638</v>
       </c>
       <c r="AC2" t="n">
-        <v>136.2912795509381</v>
+        <v>193.1298868862503</v>
       </c>
       <c r="AD2" t="n">
-        <v>110120.0567152417</v>
+        <v>156044.2764012179</v>
       </c>
       <c r="AE2" t="n">
-        <v>150671.1197517604</v>
+        <v>213506.6631596638</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.324597383169766e-06</v>
+        <v>5.194617832304067e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.7421875</v>
       </c>
       <c r="AH2" t="n">
-        <v>136291.2795509381</v>
+        <v>193129.8868862503</v>
       </c>
     </row>
   </sheetData>
@@ -10716,28 +10716,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>119.728742992989</v>
+        <v>163.394028601956</v>
       </c>
       <c r="AB2" t="n">
-        <v>163.8181482222884</v>
+        <v>223.5629183688913</v>
       </c>
       <c r="AC2" t="n">
-        <v>148.1835740762135</v>
+        <v>202.2263872123552</v>
       </c>
       <c r="AD2" t="n">
-        <v>119728.742992989</v>
+        <v>163394.028601956</v>
       </c>
       <c r="AE2" t="n">
-        <v>163818.1482222884</v>
+        <v>223562.9183688913</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.125021276147117e-06</v>
+        <v>5.092772589152989e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.265625</v>
       </c>
       <c r="AH2" t="n">
-        <v>148183.5740762135</v>
+        <v>202226.3872123552</v>
       </c>
     </row>
   </sheetData>
@@ -11013,28 +11013,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>140.385355558906</v>
+        <v>189.9979371936403</v>
       </c>
       <c r="AB2" t="n">
-        <v>192.0814368403916</v>
+        <v>259.9635597856283</v>
       </c>
       <c r="AC2" t="n">
-        <v>173.7494540963887</v>
+        <v>235.1530025009115</v>
       </c>
       <c r="AD2" t="n">
-        <v>140385.355558906</v>
+        <v>189997.9371936403</v>
       </c>
       <c r="AE2" t="n">
-        <v>192081.4368403916</v>
+        <v>259963.5597856283</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.797819544117034e-06</v>
+        <v>4.133444889684653e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.45833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>173749.4540963887</v>
+        <v>235153.0025009115</v>
       </c>
     </row>
     <row r="3">
@@ -11119,28 +11119,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>123.1858217902182</v>
+        <v>164.586548640303</v>
       </c>
       <c r="AB3" t="n">
-        <v>168.5482759482075</v>
+        <v>225.1945768956279</v>
       </c>
       <c r="AC3" t="n">
-        <v>152.4622650507484</v>
+        <v>203.7023225393477</v>
       </c>
       <c r="AD3" t="n">
-        <v>123185.8217902182</v>
+        <v>164586.548640303</v>
       </c>
       <c r="AE3" t="n">
-        <v>168548.2759482075</v>
+        <v>225194.5768956279</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.101398376246377e-06</v>
+        <v>4.581946429006584e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.33854166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>152462.2650507484</v>
+        <v>203702.3225393477</v>
       </c>
     </row>
   </sheetData>
@@ -11416,28 +11416,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>165.8240198681919</v>
+        <v>225.4415588985659</v>
       </c>
       <c r="AB2" t="n">
-        <v>226.8877396230021</v>
+        <v>308.4590866645151</v>
       </c>
       <c r="AC2" t="n">
-        <v>205.2338921923907</v>
+        <v>279.0201843583923</v>
       </c>
       <c r="AD2" t="n">
-        <v>165824.0198681919</v>
+        <v>225441.5588985659</v>
       </c>
       <c r="AE2" t="n">
-        <v>226887.7396230022</v>
+        <v>308459.0866645151</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.415723756087933e-06</v>
+        <v>3.508039188909357e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.78645833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>205233.8921923907</v>
+        <v>279020.1843583923</v>
       </c>
     </row>
     <row r="3">
@@ -11522,28 +11522,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>130.9737779360865</v>
+        <v>182.062334125754</v>
       </c>
       <c r="AB3" t="n">
-        <v>179.2041011273556</v>
+        <v>249.1057175740528</v>
       </c>
       <c r="AC3" t="n">
-        <v>162.1011132303466</v>
+        <v>225.331417510928</v>
       </c>
       <c r="AD3" t="n">
-        <v>130973.7779360865</v>
+        <v>182062.334125754</v>
       </c>
       <c r="AE3" t="n">
-        <v>179204.1011273557</v>
+        <v>249105.7175740528</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.91646208010561e-06</v>
+        <v>4.235195867985729e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.5859375</v>
       </c>
       <c r="AH3" t="n">
-        <v>162101.1132303466</v>
+        <v>225331.4175109281</v>
       </c>
     </row>
     <row r="4">
@@ -11628,28 +11628,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>129.1038234601113</v>
+        <v>171.6634863176234</v>
       </c>
       <c r="AB4" t="n">
-        <v>176.6455469167585</v>
+        <v>234.8775552381883</v>
       </c>
       <c r="AC4" t="n">
-        <v>159.7867438426546</v>
+        <v>212.4611710190426</v>
       </c>
       <c r="AD4" t="n">
-        <v>129103.8234601113</v>
+        <v>171663.4863176233</v>
       </c>
       <c r="AE4" t="n">
-        <v>176645.5469167585</v>
+        <v>234877.5552381882</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.965783867931107e-06</v>
+        <v>4.306819440061334e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.41666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>159786.7438426546</v>
+        <v>212461.1710190426</v>
       </c>
     </row>
   </sheetData>
@@ -11925,28 +11925,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>132.425360573902</v>
+        <v>182.1497570197085</v>
       </c>
       <c r="AB2" t="n">
-        <v>181.1902205317202</v>
+        <v>249.2253334343872</v>
       </c>
       <c r="AC2" t="n">
-        <v>163.8976801862953</v>
+        <v>225.439617401434</v>
       </c>
       <c r="AD2" t="n">
-        <v>132425.360573902</v>
+        <v>182149.7570197085</v>
       </c>
       <c r="AE2" t="n">
-        <v>181190.2205317202</v>
+        <v>249225.3334343871</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.807609546952473e-06</v>
+        <v>4.68011784008322e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.140625</v>
       </c>
       <c r="AH2" t="n">
-        <v>163897.6801862953</v>
+        <v>225439.6174014341</v>
       </c>
     </row>
   </sheetData>
@@ -12222,28 +12222,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>115.2275106051373</v>
+        <v>154.8549641381955</v>
       </c>
       <c r="AB2" t="n">
-        <v>157.6593634888749</v>
+        <v>211.8793936526432</v>
       </c>
       <c r="AC2" t="n">
-        <v>142.6125751138464</v>
+        <v>191.6579216970922</v>
       </c>
       <c r="AD2" t="n">
-        <v>115227.5106051373</v>
+        <v>154854.9641381955</v>
       </c>
       <c r="AE2" t="n">
-        <v>157659.3634888749</v>
+        <v>211879.3936526433</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.269731191372909e-06</v>
+        <v>4.976225551400879e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.40364583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>142612.5751138464</v>
+        <v>191657.9216970922</v>
       </c>
     </row>
   </sheetData>
@@ -12519,28 +12519,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>123.6945714328351</v>
+        <v>172.6065574964499</v>
       </c>
       <c r="AB2" t="n">
-        <v>169.2443696536858</v>
+        <v>236.1679068304221</v>
       </c>
       <c r="AC2" t="n">
-        <v>153.0919245499497</v>
+        <v>213.6283732663339</v>
       </c>
       <c r="AD2" t="n">
-        <v>123694.5714328351</v>
+        <v>172606.5574964499</v>
       </c>
       <c r="AE2" t="n">
-        <v>169244.3696536858</v>
+        <v>236167.9068304221</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.032007394021917e-06</v>
+        <v>4.526516262887132e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.80729166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>153091.9245499496</v>
+        <v>213628.3732663339</v>
       </c>
     </row>
     <row r="3">
@@ -12625,28 +12625,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>120.1739259313001</v>
+        <v>160.9197803504349</v>
       </c>
       <c r="AB3" t="n">
-        <v>164.4272671585705</v>
+        <v>220.1775427550329</v>
       </c>
       <c r="AC3" t="n">
-        <v>148.7345595561208</v>
+        <v>199.1641070956778</v>
       </c>
       <c r="AD3" t="n">
-        <v>120173.9259313001</v>
+        <v>160919.7803504349</v>
       </c>
       <c r="AE3" t="n">
-        <v>164427.2671585705</v>
+        <v>220177.5427550329</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.178111259818642e-06</v>
+        <v>4.744636286572923e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.3125</v>
       </c>
       <c r="AH3" t="n">
-        <v>148734.5595561208</v>
+        <v>199164.1070956778</v>
       </c>
     </row>
   </sheetData>
